--- a/RPL_V2/xlsx/club_zenit.xlsx
+++ b/RPL_V2/xlsx/club_zenit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="243">
   <si>
     <t>type</t>
   </si>
@@ -657,9 +657,6 @@
     <t>На первом месте по сыгранным матчам с капитанской повязкой за Зенит находится Александр Анюков (134 матча), на втором месте - Владислав Радимов (116 матчей), на третьем - Анатолий Тимощук (86 матчей)</t>
   </si>
   <si>
-    <t>zs_anukov</t>
-  </si>
-  <si>
     <t>Кто провел больше всего матчей за Зенит с капитанской повязкой на руке?</t>
   </si>
   <si>
@@ -684,9 +681,6 @@
     <t>Правда, что Сергей Семак провел за Зенит всего одну игру в качестве капитана?</t>
   </si>
   <si>
-    <t>Кто этот легендарный футболист Зенита?</t>
-  </si>
-  <si>
     <t>34-летний (13.10.1989) российский полузащитник. Перешёл в Зенит летом 2017 из Ростова</t>
   </si>
   <si>
@@ -735,18 +729,6 @@
     <t>Главный тренер с 2018 года. Является игроком Зенита в прошлом. Провёл за клуб 48 матчей и забил 9 голов</t>
   </si>
   <si>
-    <t>Константин Зырянов</t>
-  </si>
-  <si>
-    <t>Игорь Смольников</t>
-  </si>
-  <si>
-    <t>Томаш Губочан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Российский защитник. Играл за Зенит с 2005 по 2020. Сыграл 417 матч, забив 13 голов </t>
-  </si>
-  <si>
     <t>В клубе с 1 июля 2015 года</t>
   </si>
   <si>
@@ -763,6 +745,9 @@
   </si>
   <si>
     <t>pic_oi20</t>
+  </si>
+  <si>
+    <t>zs_anukov_lg</t>
   </si>
 </sst>
 </file>
@@ -1149,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1550,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>158</v>
@@ -1762,7 +1747,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>118</v>
@@ -1970,7 +1955,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>58</v>
@@ -2182,7 +2167,7 @@
         <v>189</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>189</v>
@@ -2235,7 +2220,7 @@
         <v>96</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>96</v>
@@ -2288,7 +2273,7 @@
         <v>157</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>157</v>
@@ -2341,7 +2326,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>55</v>
@@ -2394,7 +2379,7 @@
         <v>158</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>158</v>
@@ -2447,7 +2432,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>48</v>
@@ -2500,7 +2485,7 @@
         <v>97</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>97</v>
@@ -2553,7 +2538,7 @@
         <v>98</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>98</v>
@@ -2606,7 +2591,7 @@
         <v>99</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>99</v>
@@ -2659,7 +2644,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>100</v>
@@ -2712,7 +2697,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>54</v>
@@ -2765,7 +2750,7 @@
         <v>101</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>101</v>
@@ -2818,7 +2803,7 @@
         <v>102</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>102</v>
@@ -2871,7 +2856,7 @@
         <v>182</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>183</v>
@@ -3289,16 +3274,16 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="9" t="s">
         <v>212</v>
       </c>
+      <c r="C41" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D41" s="9" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>80</v>
@@ -3310,78 +3295,78 @@
         <v>80</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>80</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>80</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>80</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="3">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>213</v>
+        <v>6</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>80</v>
@@ -3392,161 +3377,108 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="3">
-        <v>6</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>220</v>
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>219</v>
+        <v>24</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>217</v>
+        <v>189</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>217</v>
+        <v>50</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>217</v>
+        <v>54</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>217</v>
+        <v>102</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q43" s="9" t="s">
-        <v>217</v>
+        <v>158</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>57</v>
+        <v>80</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>51</v>
+        <v>80</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>115</v>
+        <v>80</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>217</v>
+        <v>80</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/RPL_V2/xlsx/club_zenit.xlsx
+++ b/RPL_V2/xlsx/club_zenit.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -748,8 +753,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,17 +813,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -856,9 +869,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -890,9 +903,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,9 +938,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1099,14 +1114,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1212,7 +1232,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1265,7 +1285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1318,7 +1338,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1371,7 +1391,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1424,7 +1444,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1474,7 +1494,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1524,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1577,7 +1597,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1627,7 +1647,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1677,7 +1697,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1730,7 +1750,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1780,7 +1800,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1830,7 +1850,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1883,7 +1903,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1936,7 +1956,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1989,7 +2009,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2042,7 +2062,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2095,7 +2115,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2148,7 +2168,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2201,7 +2221,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2254,7 +2274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2307,7 +2327,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2360,7 +2380,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2413,7 +2433,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2466,7 +2486,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2519,7 +2539,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2572,7 +2592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2678,7 +2698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2731,7 +2751,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2784,7 +2804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2837,7 +2857,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2890,7 +2910,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2943,7 +2963,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2996,7 +3016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3049,7 +3069,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3102,7 +3122,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3155,7 +3175,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3208,7 +3228,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3261,7 +3281,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -3314,7 +3334,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3367,7 +3387,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
